--- a/Design/迷宫王设定.xlsx
+++ b/Design/迷宫王设定.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{57611656-D4FC-4809-A4FB-928DAB051297}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="585" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="585" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -340,13 +341,17 @@
   </si>
   <si>
     <t>迷宫物件（箱子，宝箱，架子，雕像）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八方旅人职业地图技能交互系统。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -423,7 +428,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -461,7 +472,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -488,7 +505,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -563,6 +580,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -598,6 +632,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -773,7 +824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -840,7 +891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A67" workbookViewId="0">
@@ -856,7 +907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -888,7 +939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -901,7 +952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -914,7 +965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -927,7 +978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1044,10 +1095,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
@@ -1192,7 +1243,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1248,11 +1299,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1285,6 +1336,11 @@
         <v>20</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
